--- a/serie_1242.xlsx
+++ b/serie_1242.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>data</t>
   </si>
@@ -161,6 +161,180 @@
     <t>46</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>01/01/1996 12:00:00</t>
+  </si>
+  <si>
+    <t>01/04/1996 12:00:00</t>
+  </si>
+  <si>
+    <t>01/07/1996 12:00:00</t>
+  </si>
+  <si>
+    <t>01/10/1996 12:00:00</t>
+  </si>
+  <si>
+    <t>01/01/1997 12:00:00</t>
+  </si>
+  <si>
+    <t>01/04/1997 12:00:00</t>
+  </si>
+  <si>
+    <t>01/07/1997 12:00:00</t>
+  </si>
+  <si>
+    <t>01/10/1997 12:00:00</t>
+  </si>
+  <si>
+    <t>01/01/1998 12:00:00</t>
+  </si>
+  <si>
+    <t>01/04/1998 12:00:00</t>
+  </si>
+  <si>
+    <t>01/07/1998 12:00:00</t>
+  </si>
+  <si>
+    <t>01/10/1998 12:00:00</t>
+  </si>
+  <si>
+    <t>01/01/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/04/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/07/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/10/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/01/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/04/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/07/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/10/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/01/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/04/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/07/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/10/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/01/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/04/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/07/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/10/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/01/2003 12:00:00</t>
+  </si>
+  <si>
     <t>01/04/2003 12:00:00</t>
   </si>
   <si>
@@ -297,6 +471,93 @@
   </si>
   <si>
     <t>01/07/2014 12:00:00</t>
+  </si>
+  <si>
+    <t>01/01/1996</t>
+  </si>
+  <si>
+    <t>01/04/1996</t>
+  </si>
+  <si>
+    <t>01/07/1996</t>
+  </si>
+  <si>
+    <t>01/10/1996</t>
+  </si>
+  <si>
+    <t>01/01/1997</t>
+  </si>
+  <si>
+    <t>01/04/1997</t>
+  </si>
+  <si>
+    <t>01/07/1997</t>
+  </si>
+  <si>
+    <t>01/10/1997</t>
+  </si>
+  <si>
+    <t>01/01/1998</t>
+  </si>
+  <si>
+    <t>01/04/1998</t>
+  </si>
+  <si>
+    <t>01/07/1998</t>
+  </si>
+  <si>
+    <t>01/10/1998</t>
+  </si>
+  <si>
+    <t>01/01/1999</t>
+  </si>
+  <si>
+    <t>01/04/1999</t>
+  </si>
+  <si>
+    <t>01/07/1999</t>
+  </si>
+  <si>
+    <t>01/10/1999</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>01/07/2000</t>
+  </si>
+  <si>
+    <t>01/10/2000</t>
+  </si>
+  <si>
+    <t>01/01/2001</t>
+  </si>
+  <si>
+    <t>01/04/2001</t>
+  </si>
+  <si>
+    <t>01/07/2001</t>
+  </si>
+  <si>
+    <t>01/10/2001</t>
+  </si>
+  <si>
+    <t>01/01/2002</t>
+  </si>
+  <si>
+    <t>01/04/2002</t>
+  </si>
+  <si>
+    <t>01/07/2002</t>
+  </si>
+  <si>
+    <t>01/10/2002</t>
+  </si>
+  <si>
+    <t>01/01/2003</t>
   </si>
   <si>
     <t>01/04/2003</t>
@@ -502,13 +763,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C2" t="n">
-        <v>116.79</v>
+        <v>100.95</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
@@ -516,13 +777,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C3" t="n">
-        <v>117.75</v>
+        <v>101.8</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
@@ -530,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C4" t="n">
-        <v>118.85</v>
+        <v>103.94</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
@@ -544,13 +805,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C5" t="n">
-        <v>120.54</v>
+        <v>101.69</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -558,13 +819,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C6" t="n">
-        <v>122.98</v>
+        <v>103.58</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
@@ -572,13 +833,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C7" t="n">
-        <v>124.21</v>
+        <v>104.27</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
@@ -586,13 +847,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>126.01</v>
+        <v>105.3</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
@@ -600,13 +861,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C9" t="n">
-        <v>126.95</v>
+        <v>105.91</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C10" t="n">
-        <v>128.16</v>
+        <v>105.3</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11">
@@ -628,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C11" t="n">
-        <v>128.3</v>
+        <v>106.23</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
@@ -642,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C12" t="n">
-        <v>130.06</v>
+        <v>106.35</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
@@ -656,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C13" t="n">
-        <v>131.56</v>
+        <v>106.32</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -670,13 +931,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>132.68</v>
+        <v>106.86</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
@@ -684,13 +945,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C15" t="n">
-        <v>134.87</v>
+        <v>106.93</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -698,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C16" t="n">
-        <v>135.85</v>
+        <v>107.14</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
@@ -712,13 +973,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C17" t="n">
-        <v>139.34</v>
+        <v>107.93</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
@@ -726,13 +987,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C18" t="n">
-        <v>141.02</v>
+        <v>109.48</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
@@ -740,13 +1001,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C19" t="n">
-        <v>142.49</v>
+        <v>110.3</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
@@ -754,13 +1015,13 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C20" t="n">
-        <v>144.7</v>
+        <v>111.83</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
@@ -768,13 +1029,13 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C21" t="n">
-        <v>146.51</v>
+        <v>113.16</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +1043,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C22" t="n">
-        <v>149.36</v>
+        <v>112.1</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
@@ -796,13 +1057,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C23" t="n">
-        <v>151.36</v>
+        <v>113.48</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24">
@@ -810,13 +1071,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>147.06</v>
+        <v>113.52</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
@@ -824,13 +1085,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C25" t="n">
-        <v>148.94</v>
+        <v>114.01</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26">
@@ -838,13 +1099,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C26" t="n">
-        <v>150.36</v>
+        <v>115.4</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
@@ -852,13 +1113,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C27" t="n">
-        <v>153.2</v>
+        <v>116.28</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28">
@@ -866,13 +1127,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C28" t="n">
-        <v>155.54</v>
+        <v>117.64</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29">
@@ -880,13 +1141,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C29" t="n">
-        <v>157.53</v>
+        <v>118.26</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30">
@@ -894,13 +1155,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C30" t="n">
-        <v>159.03</v>
+        <v>117.35</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31">
@@ -908,13 +1169,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C31" t="n">
-        <v>161.91</v>
+        <v>116.79</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32">
@@ -922,13 +1183,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C32" t="n">
-        <v>162.5</v>
+        <v>117.75</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33">
@@ -936,13 +1197,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C33" t="n">
-        <v>164.13</v>
+        <v>118.85</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34">
@@ -950,13 +1211,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C34" t="n">
-        <v>164.84</v>
+        <v>120.54</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
@@ -964,13 +1225,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C35" t="n">
-        <v>164.92</v>
+        <v>122.98</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36">
@@ -978,13 +1239,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C36" t="n">
-        <v>165.55</v>
+        <v>124.21</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37">
@@ -992,13 +1253,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C37" t="n">
-        <v>165.81</v>
+        <v>126.01</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38">
@@ -1006,13 +1267,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C38" t="n">
-        <v>167.42</v>
+        <v>126.95</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39">
@@ -1020,13 +1281,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C39" t="n">
-        <v>168.08</v>
+        <v>128.16</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40">
@@ -1034,13 +1295,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C40" t="n">
-        <v>169.72</v>
+        <v>128.3</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41">
@@ -1048,13 +1309,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C41" t="n">
-        <v>169.4</v>
+        <v>130.06</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42">
@@ -1062,13 +1323,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C42" t="n">
-        <v>171.67</v>
+        <v>131.56</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43">
@@ -1076,13 +1337,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C43" t="n">
-        <v>171.9</v>
+        <v>132.68</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44">
@@ -1090,13 +1351,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C44" t="n">
-        <v>172.79</v>
+        <v>134.87</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45">
@@ -1104,13 +1365,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C45" t="n">
-        <v>172.84</v>
+        <v>135.85</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46">
@@ -1118,13 +1379,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C46" t="n">
-        <v>171.98</v>
+        <v>139.34</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47">
@@ -1132,13 +1393,419 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C47" t="n">
+        <v>141.02</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="n">
+        <v>142.49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="n">
+        <v>144.7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" t="n">
+        <v>146.51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="n">
+        <v>149.36</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="n">
+        <v>151.36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="n">
+        <v>147.06</v>
+      </c>
+      <c r="D53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="n">
+        <v>148.94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="n">
+        <v>150.36</v>
+      </c>
+      <c r="D55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="n">
+        <v>153.2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" t="n">
+        <v>155.54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" t="n">
+        <v>157.53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" t="n">
+        <v>159.03</v>
+      </c>
+      <c r="D59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" t="n">
+        <v>161.91</v>
+      </c>
+      <c r="D60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="n">
+        <v>164.13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" t="n">
+        <v>164.84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="n">
+        <v>164.92</v>
+      </c>
+      <c r="D64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" t="n">
+        <v>165.55</v>
+      </c>
+      <c r="D65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" t="n">
+        <v>165.81</v>
+      </c>
+      <c r="D66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="n">
+        <v>167.42</v>
+      </c>
+      <c r="D67" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="n">
+        <v>168.08</v>
+      </c>
+      <c r="D68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="n">
+        <v>169.72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" t="n">
+        <v>171.67</v>
+      </c>
+      <c r="D71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" t="n">
+        <v>172.79</v>
+      </c>
+      <c r="D73" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="n">
+        <v>172.84</v>
+      </c>
+      <c r="D74" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>171.98</v>
+      </c>
+      <c r="D75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="n">
         <v>172.8</v>
       </c>
-      <c r="D47" t="s">
-        <v>140</v>
+      <c r="D76" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
